--- a/xlsx/非裔美国人民权运动_intext.xlsx
+++ b/xlsx/非裔美国人民权运动_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="809">
   <si>
     <t>非裔美国人民权运动</t>
   </si>
@@ -29,7 +29,7 @@
     <t>直接行动</t>
   </si>
   <si>
-    <t>政策_政策_美國_非裔美国人民权运动</t>
+    <t>政策_政策_美国_非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%B5%E5%88%B6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E6%B0%91%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1964年民權法案</t>
+    <t>1964年民权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%A8%E5%9B%BD%E6%9C%89%E8%89%B2%E4%BA%BA%E7%A7%8D%E5%8D%8F%E8%BF%9B%E4%BC%9A</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>美國民權運動</t>
+    <t>美国民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%BB%91%E4%BA%BA</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國聯邦最高法院</t>
+    <t>美国联邦最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>種族隔離</t>
+    <t>种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>華盛頓</t>
+    <t>华盛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E7%BA%AA%E5%BF%B5%E5%A0%82</t>
@@ -251,43 +251,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91%E6%81%A9</t>
   </si>
   <si>
-    <t>馬丁·路德·金恩</t>
+    <t>马丁·路德·金恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E6%9C%89%E4%B8%80%E5%80%8B%E5%A4%A2%E6%83%B3</t>
   </si>
   <si>
-    <t>我有一個夢想</t>
+    <t>我有一个梦想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%88%BE%E5%9D%8E%C2%B7X</t>
   </si>
   <si>
-    <t>麥爾坎·X</t>
+    <t>麦尔坎·X</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>羅伯特·弗朗西斯·甘迺迪</t>
+    <t>罗伯特·弗朗西斯·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A5%B4</t>
   </si>
   <si>
-    <t>農奴</t>
+    <t>农奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%86%9B%E9%98%9F</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>重建時期</t>
+    <t>重建时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -329,25 +329,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>美國內戰</t>
+    <t>美国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%90%8A%E8%A5%BF%E8%A8%B4%E5%BC%97%E6%A0%BC%E6%A3%AE%E6%A1%88</t>
   </si>
   <si>
-    <t>普萊西訴弗格森案</t>
+    <t>普莱西诉弗格森案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E4%BD%86%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>隔離但平等</t>
+    <t>隔离但平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%A8%B4%E6%95%99%E8%82%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>布朗訴教育委員會</t>
+    <t>布朗诉教育委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD</t>
@@ -377,9 +377,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
   </si>
   <si>
-    <t>馬丁·路德·金</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
@@ -389,25 +386,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>牧師</t>
+    <t>牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯邦政府</t>
+    <t>联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%A5%B4</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%92%8C%E5%B9%B3%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾和平獎</t>
+    <t>诺贝尔和平奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%96%90%E6%96%AF</t>
@@ -461,9 +458,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E8%A5%BF%E8%AF%89%E5%BC%97%E6%A0%BC%E6%A3%AE%E6%A1%88</t>
   </si>
   <si>
-    <t>普莱西诉弗格森案</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%99%A2%E4%B9%8B%E5%8F%8B</t>
   </si>
   <si>
@@ -503,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>自由學校</t>
+    <t>自由学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%8A%B5%E5%88%B6%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E5%85%AC%E8%BB%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>聯合抵制蒙哥馬利公車運動</t>
+    <t>联合抵制蒙哥马利公车运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claudette_Colvin</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E9%BB%91%E4%BA%BA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳統黑人大學</t>
+    <t>传统黑人大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shaw_University</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南密西西比大學</t>
+    <t>南密西西比大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_David_McCain</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B4%80%E5%BF%B5%E7%A2%91</t>
   </si>
   <si>
-    <t>華盛頓紀念碑</t>
+    <t>华盛顿纪念碑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Executive_Order_8802</t>
@@ -1199,9 +1193,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E6%9C%89%E4%B8%80%E4%B8%AA%E6%A2%A6%E6%83%B3</t>
   </si>
   <si>
-    <t>我有一个梦想</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%BF%AA%E9%81%87%E5%88%BA%E6%A1%88</t>
   </si>
   <si>
@@ -1289,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%9F%BA%C2%B7%E7%BE%85%E8%B3%93%E6%A3%AE</t>
   </si>
   <si>
-    <t>傑基·羅賓森</t>
+    <t>杰基·罗宾森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Israel_S._Dresner</t>
@@ -1307,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%90%8E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>皇后學院</t>
+    <t>皇后学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Andrew_Goodman</t>
@@ -1325,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E8%82%96%E5%B7%B4%E7%B8%A3_(%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尼肖巴縣 (密西西比州)</t>
+    <t>尼肖巴县 (密西西比州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Annie_Bell_Robinson_Devine</t>
@@ -1343,9 +1334,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%92%8C%E5%B9%B3%E5%A5%96</t>
   </si>
   <si>
-    <t>诺贝尔和平奖</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Tulane_Stadium</t>
   </si>
   <si>
@@ -1379,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E6%B7%9A%E5%BD%88</t>
   </si>
   <si>
-    <t>催淚彈</t>
+    <t>催泪弹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Amelia_Boynton_Robinson</t>
@@ -1433,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%97%E9%95%B7%E8%BE%AF%E8%AB%96</t>
   </si>
   <si>
-    <t>冗長辯論</t>
+    <t>冗长辩论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91%E9%81%87%E5%88%BA%E6%A1%88</t>
@@ -1445,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Memphis_Sanitation_Strike</t>
@@ -1493,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/M48%E5%B7%B4%E9%A0%93%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>M48巴頓坦克</t>
+    <t>M48巴顿坦克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kerner_Commission</t>
@@ -1571,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%A8%B4%E6%89%98%E7%9A%AE%E5%8D%A1%E6%95%99%E8%82%B2%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>布朗訴托皮卡教育局案</t>
+    <t>布朗诉托皮卡教育局案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E9%BB%98%E7%89%B9%C2%B7%E6%8F%90%E5%B0%94</t>
@@ -1601,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1625,15 +1613,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
   </si>
   <si>
-    <t>美国内战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
   </si>
   <si>
@@ -1661,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -1673,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1703,7 +1688,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1727,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1763,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -1793,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -1835,13 +1820,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1853,13 +1838,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -1901,9 +1886,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -1913,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -1937,15 +1919,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
@@ -1955,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -1967,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -2003,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -2015,13 +1991,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -2033,13 +2009,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -2051,13 +2027,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2105,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -2117,13 +2093,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -2135,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -2147,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -2159,13 +2135,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -2189,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -2261,15 +2237,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -2279,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -2333,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -2369,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -2387,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -2423,19 +2396,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -2447,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -4550,7 +4523,7 @@
         <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4576,10 +4549,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>19</v>
@@ -4605,10 +4578,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4634,10 +4607,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4663,10 +4636,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4721,10 +4694,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4750,10 +4723,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4779,10 +4752,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4808,10 +4781,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4837,10 +4810,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -4866,10 +4839,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4895,10 +4868,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4924,10 +4897,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4953,10 +4926,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5011,10 +4984,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -5040,10 +5013,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5069,10 +5042,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>6</v>
@@ -5098,10 +5071,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5127,10 +5100,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5156,10 +5129,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -5185,10 +5158,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -5214,10 +5187,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -5243,10 +5216,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5272,10 +5245,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5301,10 +5274,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5330,10 +5303,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5359,10 +5332,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5388,10 +5361,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5417,10 +5390,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -5446,10 +5419,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -5475,10 +5448,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -5504,10 +5477,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5533,10 +5506,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5562,10 +5535,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5591,10 +5564,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -5620,10 +5593,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5649,10 +5622,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5678,10 +5651,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5707,10 +5680,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5736,10 +5709,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -5765,10 +5738,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5794,10 +5767,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5823,10 +5796,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5852,10 +5825,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5881,10 +5854,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5910,10 +5883,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5939,10 +5912,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -5968,10 +5941,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5997,10 +5970,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6026,10 +5999,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6055,10 +6028,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6084,10 +6057,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6113,10 +6086,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -6142,10 +6115,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>12</v>
@@ -6171,10 +6144,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6200,10 +6173,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6229,10 +6202,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6258,10 +6231,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6287,10 +6260,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6316,10 +6289,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6345,10 +6318,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6374,10 +6347,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6403,10 +6376,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6432,10 +6405,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6461,10 +6434,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6490,10 +6463,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>15</v>
@@ -6519,10 +6492,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6548,10 +6521,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6577,10 +6550,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6606,10 +6579,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>18</v>
@@ -6635,10 +6608,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6664,10 +6637,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6693,10 +6666,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6722,10 +6695,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6751,10 +6724,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6780,10 +6753,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>11</v>
@@ -6809,10 +6782,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -6838,10 +6811,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6867,10 +6840,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6896,10 +6869,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>65</v>
@@ -6925,10 +6898,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6954,10 +6927,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6983,10 +6956,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7012,10 +6985,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7041,10 +7014,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7070,10 +7043,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7099,10 +7072,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7128,10 +7101,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7157,10 +7130,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7186,10 +7159,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7215,10 +7188,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7273,10 +7246,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F154" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7302,10 +7275,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7331,10 +7304,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -7360,10 +7333,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7389,10 +7362,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7418,10 +7391,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7447,10 +7420,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7476,10 +7449,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7505,10 +7478,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7534,10 +7507,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7563,10 +7536,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7592,10 +7565,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7621,10 +7594,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7650,10 +7623,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>8</v>
@@ -7679,10 +7652,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7708,10 +7681,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>6</v>
@@ -7737,10 +7710,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7766,10 +7739,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7795,10 +7768,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7853,10 +7826,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7882,10 +7855,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7911,10 +7884,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7940,10 +7913,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7969,10 +7942,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -7998,10 +7971,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8027,10 +8000,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8056,10 +8029,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8085,10 +8058,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8114,10 +8087,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8143,10 +8116,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8172,10 +8145,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>10</v>
@@ -8201,10 +8174,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8230,10 +8203,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8259,10 +8232,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8288,10 +8261,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8317,10 +8290,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8346,10 +8319,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8375,10 +8348,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8404,10 +8377,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>11</v>
@@ -8433,10 +8406,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8462,10 +8435,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8491,10 +8464,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8549,10 +8522,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>9</v>
@@ -8578,10 +8551,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8607,10 +8580,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8636,10 +8609,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8665,10 +8638,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8723,10 +8696,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8752,10 +8725,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>7</v>
@@ -8781,10 +8754,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8810,10 +8783,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8839,10 +8812,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8868,10 +8841,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8897,10 +8870,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8926,10 +8899,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8955,10 +8928,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8984,10 +8957,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9013,10 +8986,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9042,10 +9015,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>5</v>
@@ -9071,10 +9044,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -9100,10 +9073,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9129,10 +9102,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9158,10 +9131,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9187,10 +9160,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9216,10 +9189,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F221" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9245,10 +9218,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9274,10 +9247,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9303,10 +9276,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9332,10 +9305,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9361,10 +9334,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9390,10 +9363,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9419,10 +9392,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9448,10 +9421,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>135</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -9477,10 +9450,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9506,10 +9479,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9535,10 +9508,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9564,10 +9537,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9593,10 +9566,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9622,10 +9595,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9651,10 +9624,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9680,10 +9653,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9709,10 +9682,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9738,10 +9711,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>10</v>
@@ -9767,10 +9740,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9796,10 +9769,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9825,10 +9798,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9854,10 +9827,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9883,10 +9856,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9941,10 +9914,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9970,10 +9943,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9999,10 +9972,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10028,10 +10001,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10057,10 +10030,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10086,10 +10059,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10115,10 +10088,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>6</v>
@@ -10144,10 +10117,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10173,10 +10146,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10202,10 +10175,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10231,10 +10204,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10260,10 +10233,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10289,10 +10262,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10318,10 +10291,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10347,10 +10320,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10376,10 +10349,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10405,10 +10378,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10434,10 +10407,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10463,10 +10436,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10492,10 +10465,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10521,10 +10494,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10550,10 +10523,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>11</v>
@@ -10579,10 +10552,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10608,10 +10581,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10637,10 +10610,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10666,10 +10639,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>16</v>
@@ -10695,10 +10668,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>13</v>
@@ -10724,10 +10697,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10753,10 +10726,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10782,10 +10755,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10811,10 +10784,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10840,10 +10813,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10869,10 +10842,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10898,10 +10871,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>104</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10927,10 +10900,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10956,10 +10929,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10985,10 +10958,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11014,10 +10987,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11043,10 +11016,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11072,10 +11045,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11101,10 +11074,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11130,10 +11103,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11159,10 +11132,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F288" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G288" t="n">
         <v>13</v>
@@ -11188,10 +11161,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F289" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11217,10 +11190,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11246,10 +11219,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11275,10 +11248,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11333,10 +11306,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G294" t="n">
         <v>12</v>
@@ -11362,10 +11335,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G295" t="n">
         <v>11</v>
@@ -11391,10 +11364,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11420,10 +11393,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11449,10 +11422,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>21</v>
@@ -11478,10 +11451,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>5</v>
@@ -11507,10 +11480,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>5</v>
@@ -11536,10 +11509,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -11565,10 +11538,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11594,10 +11567,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>42</v>
@@ -11623,10 +11596,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11652,10 +11625,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11681,10 +11654,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11710,10 +11683,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11739,10 +11712,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>12</v>
@@ -11768,10 +11741,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>4</v>
@@ -11797,10 +11770,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11826,10 +11799,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11855,10 +11828,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11884,10 +11857,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11913,10 +11886,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G314" t="n">
         <v>3</v>
@@ -11942,10 +11915,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11971,10 +11944,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12000,10 +11973,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12029,10 +12002,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12058,10 +12031,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12087,10 +12060,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12116,10 +12089,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12145,10 +12118,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12174,10 +12147,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12203,10 +12176,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12232,10 +12205,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>174</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12261,10 +12234,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G326" t="n">
         <v>18</v>
@@ -12290,10 +12263,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G327" t="n">
         <v>13</v>
@@ -12319,10 +12292,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12348,10 +12321,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12377,10 +12350,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -12406,10 +12379,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>106</v>
       </c>
       <c r="G331" t="n">
         <v>25</v>
@@ -12435,10 +12408,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>137</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12464,10 +12437,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12493,10 +12466,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12522,10 +12495,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12551,10 +12524,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12580,10 +12553,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12609,10 +12582,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12638,10 +12611,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>3</v>
@@ -12667,10 +12640,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12696,10 +12669,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F341" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12725,10 +12698,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F342" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12754,10 +12727,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12783,10 +12756,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12812,10 +12785,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F345" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12841,10 +12814,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F346" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12870,10 +12843,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F347" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12899,10 +12872,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F348" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12928,10 +12901,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F349" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12957,10 +12930,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12986,10 +12959,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F351" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13015,10 +12988,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F352" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13044,10 +13017,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13073,10 +13046,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13102,10 +13075,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13131,10 +13104,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -13160,10 +13133,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13189,10 +13162,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13218,10 +13191,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13247,10 +13220,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13276,10 +13249,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13305,10 +13278,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13334,10 +13307,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13363,10 +13336,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13392,10 +13365,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13421,10 +13394,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13450,10 +13423,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13479,10 +13452,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13508,10 +13481,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13537,10 +13510,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F370" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13566,10 +13539,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F371" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -13595,10 +13568,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13624,10 +13597,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F373" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G373" t="n">
         <v>21</v>
@@ -13653,10 +13626,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F374" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -13682,10 +13655,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F375" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G375" t="n">
         <v>33</v>
@@ -13711,10 +13684,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F376" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13740,10 +13713,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F377" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13769,10 +13742,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F378" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13798,10 +13771,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F379" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13827,10 +13800,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F380" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13856,10 +13829,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F381" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G381" t="n">
         <v>10</v>
@@ -13885,10 +13858,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F382" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G382" t="n">
         <v>30</v>
@@ -13914,10 +13887,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F383" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13943,10 +13916,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F384" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G384" t="n">
         <v>4</v>
@@ -13972,10 +13945,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F385" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14001,10 +13974,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F386" t="s">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14030,10 +14003,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F387" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G387" t="n">
         <v>3</v>
@@ -14059,10 +14032,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F388" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14088,10 +14061,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F389" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14117,10 +14090,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14146,10 +14119,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F391" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G391" t="n">
         <v>8</v>
@@ -14175,10 +14148,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F392" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14204,10 +14177,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F393" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14233,10 +14206,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F394" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14262,10 +14235,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F395" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14291,10 +14264,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F396" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G396" t="n">
         <v>5</v>
@@ -14320,10 +14293,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14349,10 +14322,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14378,10 +14351,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G399" t="n">
         <v>4</v>
@@ -14407,10 +14380,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14436,10 +14409,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14465,10 +14438,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14494,10 +14467,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G403" t="n">
         <v>7</v>
@@ -14523,10 +14496,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14552,10 +14525,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14581,10 +14554,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F406" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14610,10 +14583,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F407" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G407" t="n">
         <v>24</v>
@@ -14639,10 +14612,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F408" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14668,10 +14641,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F409" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14697,10 +14670,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F410" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14726,10 +14699,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F411" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -14755,10 +14728,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F412" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14784,10 +14757,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F413" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14813,10 +14786,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F414" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14842,10 +14815,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F415" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G415" t="n">
         <v>16</v>
@@ -14871,10 +14844,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F416" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14900,10 +14873,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F417" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14929,10 +14902,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F418" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G418" t="n">
         <v>7</v>
@@ -14958,10 +14931,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F419" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G419" t="n">
         <v>13</v>
@@ -14987,10 +14960,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F420" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="G420" t="n">
         <v>3</v>
